--- a/vendors/excelport/template_product_light_supplier.xlsx
+++ b/vendors/excelport/template_product_light_supplier.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>MRP</t>
   </si>
   <si>
     <t>SKU</t>
@@ -408,8 +411,8 @@
   </sheetPr>
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:U2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -504,10 +507,14 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="AP1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <sheetProtection sheet="true" password="92e9" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -526,7 +533,7 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="A2:U2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,40 +563,40 @@
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="7"/>
@@ -602,10 +609,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -637,15 +644,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/vendors/excelport/template_product_light_supplier.xlsx
+++ b/vendors/excelport/template_product_light_supplier.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="561" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>ID</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Minimum Quantity</t>
+  </si>
+  <si>
+    <t>Unit Class</t>
   </si>
   <si>
     <t>Out Of Stock Status</t>
@@ -411,8 +414,8 @@
   </sheetPr>
   <dimension ref="A1:AP2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -424,7 +427,9 @@
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.4285714285714"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.5714285714286"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="12.1377551020408"/>
-    <col collapsed="false" hidden="false" max="13" min="8" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="12.2857142857143"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="9.14285714285714"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.2857142857143"/>
     <col collapsed="false" hidden="false" max="18" min="16" style="1" width="9.14285714285714"/>
@@ -510,11 +515,13 @@
       <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="AP1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <sheetProtection sheet="true" password="92e9" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -563,40 +570,40 @@
   <sheetData>
     <row r="1" s="9" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M1" s="8"/>
       <c r="N1" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="8"/>
       <c r="P1" s="7"/>
@@ -609,10 +616,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>0</v>
@@ -644,15 +651,15 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
